--- a/xlsx/荷马史诗_intext.xlsx
+++ b/xlsx/荷马史诗_intext.xlsx
@@ -15,213 +15,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>荷马史诗</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC%E5%8F%B2%E8%A9%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%A6_(%E7%A5%9E%E8%AF%9D)</t>
+  </si>
+  <si>
+    <t>海伦 (神话)</t>
+  </si>
+  <si>
+    <t>政策_政策_外交政策_荷马史诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古希腊文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>荷马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%AF%97</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E4%BA%9A%E7%89%B9</t>
+  </si>
+  <si>
+    <t>伊利亚特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>奥德赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>小亚细亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E5%A4%B4%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>口头文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>现实主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>浪漫主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>民俗学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%BD%E9%96%80%E8%BE%B2</t>
+  </si>
+  <si>
+    <t>阿伽门农</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E9%87%8C%E6%96%AF</t>
+  </si>
+  <si>
+    <t>阿基里斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E7%BE%85%E5%85%8B%E6%B4%9B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>帕特罗克洛斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%85%8B%E6%89%98%E5%B0%94</t>
+  </si>
+  <si>
+    <t>赫克托尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E9%98%BF%E6%91%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>普里阿摩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E4%BF%AE%E6%96%AF</t>
+  </si>
+  <si>
+    <t>奥德修斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%90%95%E6%96%90%E6%91%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>波吕斐摩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%B3%BD%E9%A0%93</t>
+  </si>
+  <si>
+    <t>波赛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
+  </si>
+  <si>
+    <t>雅典娜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>古希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%AE%AA%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>杨宪益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BF%B5%E7%94%9F</t>
+  </si>
+  <si>
+    <t>罗念生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%8C</t>
+  </si>
+  <si>
+    <t>癌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%85%A5%E7%94%9F</t>
+  </si>
+  <si>
+    <t>王焕生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E4%B8%AD%E6%A2%85</t>
+  </si>
+  <si>
+    <t>陈中梅</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC%E5%8F%B2%E8%AF%97</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%A6_(%E7%A5%9E%E8%AF%9D)</t>
-  </si>
-  <si>
-    <t>海伦 (神话)</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_荷马史诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古希腊文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>古希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>荷马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%AF%97</t>
-  </si>
-  <si>
-    <t>史诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E4%BA%9A%E7%89%B9</t>
-  </si>
-  <si>
-    <t>伊利亚特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>奥德赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>小亞細亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E5%A4%B4%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>口头文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>現實主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>浪漫主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>考古学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>民俗学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%BD%E9%96%80%E8%BE%B2</t>
-  </si>
-  <si>
-    <t>阿伽門農</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E9%87%8C%E6%96%AF</t>
-  </si>
-  <si>
-    <t>阿基里斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E7%BE%85%E5%85%8B%E6%B4%9B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>帕特羅克洛斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%85%8B%E6%89%98%E5%B0%94</t>
-  </si>
-  <si>
-    <t>赫克托尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E9%98%BF%E6%91%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>普里阿摩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E4%BF%AE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>奥德修斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%90%95%E6%96%90%E6%91%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>波吕斐摩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%B3%BD%E9%A0%93</t>
-  </si>
-  <si>
-    <t>波賽頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
-  </si>
-  <si>
-    <t>雅典娜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>古希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%AE%AA%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>杨宪益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BF%B5%E7%94%9F</t>
-  </si>
-  <si>
-    <t>羅念生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%8C</t>
-  </si>
-  <si>
-    <t>癌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%85%A5%E7%94%9F</t>
-  </si>
-  <si>
-    <t>王煥生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E4%B8%AD%E6%A2%85</t>
-  </si>
-  <si>
-    <t>陳中梅</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,6 +1570,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/荷马史诗_intext.xlsx
+++ b/xlsx/荷马史诗_intext.xlsx
@@ -29,7 +29,7 @@
     <t>海伦 (神话)</t>
   </si>
   <si>
-    <t>政策_政策_政治_荷马史诗</t>
+    <t>体育运动_体育运动_古希腊_荷马史诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
